--- a/public/article.xlsx
+++ b/public/article.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13120"/>
+    <workbookView windowWidth="28000" windowHeight="13100"/>
   </bookViews>
   <sheets>
     <sheet name="测评文章数据模型" sheetId="1" r:id="rId1"/>
@@ -52,13 +52,13 @@
     <t>这是封面简述</t>
   </si>
   <si>
-    <t>这个文章内容</t>
-  </si>
-  <si>
-    <t>这是封面图片url</t>
-  </si>
-  <si>
-    <t>zengkefan</t>
+    <t>[{"type":1, "content": "https://gimg2.baidu.com/image_search/src=http%3A%2F%2Fup.enterdesk.com%2Fedpic_source%2Fc5%2F89%2F0e%2Fc5890ee0b2472f75fa1a91d9305d5f09.jpg&amp;refer=http%3A%2F%2Fup.enterdesk.com&amp;app=2002&amp;size=f9999,10000&amp;q=a80&amp;n=0&amp;g=0n&amp;fmt=jpeg?sec=1647076315&amp;t=9637edad34b85079abec7f439def30ad"},{"type":2, "content": "内容正文水电费水电费理解水电费教练说都疯了感觉龙卷风的快乐手里的积分老鼠大家放老鼠大家疯狂老鼠就到了疯狂介绍了快递放老鼠大家放老鼠的放老鼠的弗兰克司机端口兰芳。"}]</t>
+  </si>
+  <si>
+    <t>https://gimg2.baidu.com/image_search/src=http%3A%2F%2Fup.enterdesk.com%2Fedpic_source%2Fc5%2F89%2F0e%2Fc5890ee0b2472f75fa1a91d9305d5f09.jpg&amp;refer=http%3A%2F%2Fup.enterdesk.com&amp;app=2002&amp;size=f9999,10000&amp;q=a80&amp;n=0&amp;g=0n&amp;fmt=jpeg?sec=1647076315&amp;t=9637edad34b85079abec7f439def30ad</t>
+  </si>
+  <si>
+    <t>无名</t>
   </si>
   <si>
     <t>数字思维</t>
@@ -122,6 +122,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,14 +184,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,64 +641,64 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -713,80 +713,80 @@
     <xf numFmtId="0" fontId="24" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,7 +817,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1149,7 +1152,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
@@ -1157,7 +1160,8 @@
     <col min="1" max="1" width="5.57692307692308" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.76923076923077" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.8846153846154" style="2" customWidth="1"/>
-    <col min="4" max="5" width="5.57692307692308" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.7403846153846" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.0673076923077" style="3" customWidth="1"/>
     <col min="6" max="6" width="35.5769230769231" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.7307692307692" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.5769230769231" style="3" customWidth="1"/>
@@ -1200,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="61" spans="1:10">
+    <row r="2" ht="289" spans="1:10">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1213,22 +1217,22 @@
       <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1247,6 +1251,9 @@
       <formula1>"判断题,单选题,多选题"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://gimg2.baidu.com/image_search/src=http%3A%2F%2Fup.enterdesk.com%2Fedpic_source%2Fc5%2F89%2F0e%2Fc5890ee0b2472f75fa1a91d9305d5f09.jpg&amp;refer=http%3A%2F%2Fup.enterdesk.com&amp;app=2002&amp;size=f9999,10000&amp;q=a80&amp;n=0&amp;g=0n&amp;fmt=jpeg?sec=1647076315&amp;t=9637edad34b85079abec7f439def30ad"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/public/article.xlsx
+++ b/public/article.xlsx
@@ -52,13 +52,13 @@
     <t>这是封面简述</t>
   </si>
   <si>
-    <t>[{"type":1, "content": "https://gimg2.baidu.com/image_search/src=http%3A%2F%2Fup.enterdesk.com%2Fedpic_source%2Fc5%2F89%2F0e%2Fc5890ee0b2472f75fa1a91d9305d5f09.jpg&amp;refer=http%3A%2F%2Fup.enterdesk.com&amp;app=2002&amp;size=f9999,10000&amp;q=a80&amp;n=0&amp;g=0n&amp;fmt=jpeg?sec=1647076315&amp;t=9637edad34b85079abec7f439def30ad"},{"type":2, "content": "内容正文水电费水电费理解水电费教练说都疯了感觉龙卷风的快乐手里的积分老鼠大家放老鼠大家疯狂老鼠就到了疯狂介绍了快递放老鼠大家放老鼠的放老鼠的弗兰克司机端口兰芳。"}]</t>
+    <t>/fileUpload/2022-02-11/zengkefan__12__1644574928850.jpeg||内容正文水电费水电费理解水电费教练说都疯了感觉龙卷风的快乐手里的积分老鼠大家放老鼠大家疯狂老鼠就到了疯狂介绍了快递放老鼠大家放老鼠的放老鼠的弗兰克司机端口兰芳。</t>
   </si>
   <si>
     <t>https://gimg2.baidu.com/image_search/src=http%3A%2F%2Fup.enterdesk.com%2Fedpic_source%2Fc5%2F89%2F0e%2Fc5890ee0b2472f75fa1a91d9305d5f09.jpg&amp;refer=http%3A%2F%2Fup.enterdesk.com&amp;app=2002&amp;size=f9999,10000&amp;q=a80&amp;n=0&amp;g=0n&amp;fmt=jpeg?sec=1647076315&amp;t=9637edad34b85079abec7f439def30ad</t>
   </si>
   <si>
-    <t>无名</t>
+    <t>数商团队</t>
   </si>
   <si>
     <t>数字思维</t>
@@ -77,11 +77,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -124,6 +125,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -269,14 +278,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -641,152 +642,152 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,10 +818,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1204,7 +1208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="289" spans="1:10">
+    <row r="2" ht="286" spans="1:10">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1214,25 +1218,25 @@
       <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1253,6 +1257,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://gimg2.baidu.com/image_search/src=http%3A%2F%2Fup.enterdesk.com%2Fedpic_source%2Fc5%2F89%2F0e%2Fc5890ee0b2472f75fa1a91d9305d5f09.jpg&amp;refer=http%3A%2F%2Fup.enterdesk.com&amp;app=2002&amp;size=f9999,10000&amp;q=a80&amp;n=0&amp;g=0n&amp;fmt=jpeg?sec=1647076315&amp;t=9637edad34b85079abec7f439def30ad"/>
+    <hyperlink ref="D2" r:id="rId2" display="/fileUpload/2022-02-11/zengkefan__12__1644574928850.jpeg||内容正文水电费水电费理解水电费教练说都疯了感觉龙卷风的快乐手里的积分老鼠大家放老鼠大家疯狂老鼠就到了疯狂介绍了快递放老鼠大家放老鼠的放老鼠的弗兰克司机端口兰芳。" tooltip="http://localhost:8080/fileUpload/2022-02-11/zengkefan__12__1644574928850.jpeg||内容正文水电费水电费理解水电费教练说都疯了感觉龙卷风的快乐手里的积分老鼠大家放老鼠大家疯狂老鼠就到了疯狂介绍了快递放老鼠大家放老鼠的放老鼠的弗兰克司机端口兰芳。"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/public/article.xlsx
+++ b/public/article.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13100"/>
+    <workbookView windowWidth="28000" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="测评文章数据模型" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,10 @@
     <t>这是封面简述</t>
   </si>
   <si>
-    <t>/fileUpload/2022-02-11/zengkefan__12__1644574928850.jpeg||内容正文水电费水电费理解水电费教练说都疯了感觉龙卷风的快乐手里的积分老鼠大家放老鼠大家疯狂老鼠就到了疯狂介绍了快递放老鼠大家放老鼠的放老鼠的弗兰克司机端口兰芳。</t>
-  </si>
-  <si>
-    <t>https://gimg2.baidu.com/image_search/src=http%3A%2F%2Fup.enterdesk.com%2Fedpic_source%2Fc5%2F89%2F0e%2Fc5890ee0b2472f75fa1a91d9305d5f09.jpg&amp;refer=http%3A%2F%2Fup.enterdesk.com&amp;app=2002&amp;size=f9999,10000&amp;q=a80&amp;n=0&amp;g=0n&amp;fmt=jpeg?sec=1647076315&amp;t=9637edad34b85079abec7f439def30ad</t>
+    <t>内容正文水电费水电费理解水电费教练说都疯了感觉龙卷风的快乐手里的积分老鼠大家放老鼠大家疯狂老鼠就到了疯狂介绍了快递放老鼠大家放老鼠的放老鼠的弗兰克司机端口兰芳。||assets/case3.png</t>
+  </si>
+  <si>
+    <t>assets/case3.png</t>
   </si>
   <si>
     <t>数商团队</t>
@@ -77,12 +77,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -123,22 +122,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,14 +130,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +170,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,6 +204,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -182,104 +279,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -302,181 +301,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,16 +542,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,17 +558,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,7 +581,42 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,173 +635,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -818,13 +817,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,7 +1152,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
@@ -1208,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="286" spans="1:10">
+    <row r="2" ht="101" spans="1:10">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1221,22 +1217,22 @@
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1256,8 +1252,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://gimg2.baidu.com/image_search/src=http%3A%2F%2Fup.enterdesk.com%2Fedpic_source%2Fc5%2F89%2F0e%2Fc5890ee0b2472f75fa1a91d9305d5f09.jpg&amp;refer=http%3A%2F%2Fup.enterdesk.com&amp;app=2002&amp;size=f9999,10000&amp;q=a80&amp;n=0&amp;g=0n&amp;fmt=jpeg?sec=1647076315&amp;t=9637edad34b85079abec7f439def30ad"/>
-    <hyperlink ref="D2" r:id="rId2" display="/fileUpload/2022-02-11/zengkefan__12__1644574928850.jpeg||内容正文水电费水电费理解水电费教练说都疯了感觉龙卷风的快乐手里的积分老鼠大家放老鼠大家疯狂老鼠就到了疯狂介绍了快递放老鼠大家放老鼠的放老鼠的弗兰克司机端口兰芳。" tooltip="http://localhost:8080/fileUpload/2022-02-11/zengkefan__12__1644574928850.jpeg||内容正文水电费水电费理解水电费教练说都疯了感觉龙卷风的快乐手里的积分老鼠大家放老鼠大家疯狂老鼠就到了疯狂介绍了快递放老鼠大家放老鼠的放老鼠的弗兰克司机端口兰芳。"/>
+    <hyperlink ref="E2" r:id="rId1" display="assets/case3.png"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
